--- a/assets/files/bieu_mau_lap_hsmt_mua_sam.xlsx
+++ b/assets/files/bieu_mau_lap_hsmt_mua_sam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuank\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\vcc\cbms\test\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DD2AD1-EC9A-4655-B165-71986DA5C0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53732E89-A5F2-4DB6-A0F1-DD99D4019DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{035FB211-33B2-45EA-8ED0-960270F425FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{035FB211-33B2-45EA-8ED0-960270F425FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Hạng mục mua sắm</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Quả</t>
+  </si>
+  <si>
+    <t>Test xóa</t>
   </si>
 </sst>
 </file>
@@ -488,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A692370-9B77-4F33-AD16-9F912BE4C6BE}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,6 +595,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/files/bieu_mau_lap_hsmt_mua_sam.xlsx
+++ b/assets/files/bieu_mau_lap_hsmt_mua_sam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\vcc\cbms\test\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuank\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53732E89-A5F2-4DB6-A0F1-DD99D4019DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261C9FF4-9584-4A01-ABE8-288EA06862E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{035FB211-33B2-45EA-8ED0-960270F425FD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table!$B$1:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Hạng mục mua sắm</t>
   </si>
   <si>
-    <t>Khu vực</t>
-  </si>
-  <si>
     <t>Đơn vị</t>
   </si>
   <si>
@@ -51,34 +48,25 @@
     <t>Bánh mỳ</t>
   </si>
   <si>
-    <t>Miền Bắc</t>
+    <t>Pate</t>
+  </si>
+  <si>
+    <t>Trứng</t>
+  </si>
+  <si>
+    <t>Xúc xích</t>
   </si>
   <si>
     <t>Cái</t>
   </si>
   <si>
-    <t>10.000</t>
-  </si>
-  <si>
-    <t>Pate</t>
-  </si>
-  <si>
-    <t>Hộp</t>
-  </si>
-  <si>
-    <t>20.000</t>
-  </si>
-  <si>
-    <t>Trứng</t>
-  </si>
-  <si>
-    <t>Miền Trung</t>
-  </si>
-  <si>
     <t>Quả</t>
   </si>
   <si>
-    <t>Test xóa</t>
+    <t>1.000.000</t>
+  </si>
+  <si>
+    <t>15.000.000</t>
   </si>
 </sst>
 </file>
@@ -491,23 +479,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A692370-9B77-4F33-AD16-9F912BE4C6BE}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,102 +504,86 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
+      <c r="E6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
